--- a/daftar_berita/idn_times.xlsx
+++ b/daftar_berita/idn_times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,386 +458,386 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kenapa Kucing dan Anjing Sering Dianggap Bermusuhan? Ini 5 Faktanya!</t>
+          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 19:06 WIB</t>
+          <t>28 Sep 2025, 07:30 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lathiva R. Faisol</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-dan-anjing-sering-dianggap-bermusuhan-c1c2-01-6cnpl-4mhk7n</t>
+          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9 Pemotretan Marini Zumarnis dengan Kucing Kesayangan, Cute!</t>
+          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21 Sep 2025, 07:01 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nelsi Islamiyati</t>
+          <t>Deti Mega Purnamasari</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/hype/entertainment/9-pemotretan-marini-zumarnis-dengan-kucing-kesayangan-cute-01-cq2rt-26lv6g</t>
+          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5 Kondisi Kucing Wajib Mandi, Bukan Hanya karena Kotor</t>
+          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 13:28 WIB</t>
+          <t>28 Sep 2025, 08:29 WIB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Devia Sagita</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kondisi-kucing-wajib-mandi-c1c2-01-frzwz-tq9qcz</t>
+          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11 Rekomendasi Bag Charm dan Ganci Bentuk Kucing, Gemas!</t>
+          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 18:45 WIB</t>
+          <t>28 Sep 2025, 06:00 WIB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Putri Aisya</t>
+          <t>Sandy Firdaus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/life/diy/rekomendasi-bag-charm-dan-ganci-bentuk-kucin-00-4tcf2-wp8lnq</t>
+          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5 Ciri Hamil Palsu pada Kucing, Bisa Jadi Tanda Penyakit!</t>
+          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 19:04 WIB</t>
+          <t>28 Sep 2025, 08:30 WIB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mutiara Ananda</t>
+          <t>Dian Septi Arthasalina</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/ciri-hamil-palsu-pada-kucing-c1c2-01-sfnk2-b1c530</t>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Cuma Mengeong saat Lihat Kamu? Alasannya Bikin Senyum!</t>
+          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 10:38 WIB</t>
+          <t>28 Sep 2025, 09:48 WIB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yulia Nor Annisa</t>
+          <t>Aulia Supintou</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-mengeong-saat-lihat-kamu-c1c2-01-l9rtw-q5bkwg</t>
+          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20 Prompt Gemini AI Edit Foto Bareng Kucing, Bikin Gemas</t>
+          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 13:20 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Angel Rinella</t>
+          <t>Margith Juita Damanik</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/tech/trend/prompt-gemini-ai-edit-foto-bareng-kucing-go25q3-00-m3s99-9fq8dy</t>
+          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Suka Tidur di Pangkuan Kita? Ini Jawabannya</t>
+          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 14:12 WIB</t>
+          <t>28 Sep 2025, 07:02 WIB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Laili Zain Damaika</t>
+          <t>Lia Hutasoit</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-suka-tidur-di-pangkuan-kita-q9t01-00-2k3g7-fdb7cv</t>
+          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya Berencana  Kurangi Subsidi Listrik dan Beralih ke PLTS</t>
+          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 22:10 WIB</t>
+          <t>28 Sep 2025, 07:05 WIB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Misrohatun H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-berencana-kurangi-subsidi-listrik-dan-beralih-ke-plts-00-gshdq-m979x0</t>
+          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>28 Sep 2025, 09:17 WIB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Purbaya: Tidak Ada Manipulasi pada Data Pertumbuhan Ekonomi Q2</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 16:45 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-tidak-ada-manipulasi-pada-data-pertumbuhan-ekonomi-q2-00-gshdq-s4g41g</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bos BSI Buka Suara Soal Titipan Dana Rp10 Triliun dari Menkeu Purbaya</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:30 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/bos-bsi-buka-suara-soal-titipan-dana-rp10-triliun-dari-menkeu-purbaya-00-bvq5c-wn60ws</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya: Risiko Kredit Fiktif dalam Dana Rp200 T Tetap Ada</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 16:47 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-risiko-kredit-fiktif-dalam-dana-rp200-t-tetap-ada-00-gshdq-gyphns</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Anata Siregar</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>26 Sep 2025, 21:19 WIB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Efek The Fed hingga Purbaya Bikin Rupiah Melemah Hari Ini</t>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:59 WIB</t>
+          <t>26 Sep 2025, 22:22 WIB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/efek-the-fed-hingga-purbaya-bikin-rupiah-melemah-hari-ini-00-bvq5c-t3dqj3</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,799 +847,931 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kenapa Kucing dan Anjing Sering Dianggap Bermusuhan? Ini 5 Faktanya!</t>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 19:06 WIB</t>
+          <t>23 Sep 2025, 15:38 WIB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lathiva R. Faisol</t>
+          <t>Dini Suciatiningrum</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-dan-anjing-sering-dianggap-bermusuhan-c1c2-01-6cnpl-4mhk7n</t>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9 Pemotretan Marini Zumarnis dengan Kucing Kesayangan, Cute!</t>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21 Sep 2025, 07:01 WIB</t>
+          <t>26 Sep 2025, 23:06 WIB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nelsi Islamiyati</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/hype/entertainment/9-pemotretan-marini-zumarnis-dengan-kucing-kesayangan-cute-01-cq2rt-26lv6g</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5 Kondisi Kucing Wajib Mandi, Bukan Hanya karena Kotor</t>
+          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 13:28 WIB</t>
+          <t>28 Sep 2025, 07:30 WIB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Devia Sagita</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kondisi-kucing-wajib-mandi-c1c2-01-frzwz-tq9qcz</t>
+          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11 Rekomendasi Bag Charm dan Ganci Bentuk Kucing, Gemas!</t>
+          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 18:45 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Putri Aisya</t>
+          <t>Deti Mega Purnamasari</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/life/diy/rekomendasi-bag-charm-dan-ganci-bentuk-kucin-00-4tcf2-wp8lnq</t>
+          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5 Ciri Hamil Palsu pada Kucing, Bisa Jadi Tanda Penyakit!</t>
+          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 19:04 WIB</t>
+          <t>28 Sep 2025, 08:29 WIB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mutiara Ananda</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/ciri-hamil-palsu-pada-kucing-c1c2-01-sfnk2-b1c530</t>
+          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Cuma Mengeong saat Lihat Kamu? Alasannya Bikin Senyum!</t>
+          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 10:38 WIB</t>
+          <t>28 Sep 2025, 06:00 WIB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yulia Nor Annisa</t>
+          <t>Sandy Firdaus</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-mengeong-saat-lihat-kamu-c1c2-01-l9rtw-q5bkwg</t>
+          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20 Prompt Gemini AI Edit Foto Bareng Kucing, Bikin Gemas</t>
+          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 13:20 WIB</t>
+          <t>28 Sep 2025, 08:30 WIB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Angel Rinella</t>
+          <t>Dian Septi Arthasalina</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/tech/trend/prompt-gemini-ai-edit-foto-bareng-kucing-go25q3-00-m3s99-9fq8dy</t>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Suka Tidur di Pangkuan Kita? Ini Jawabannya</t>
+          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 14:12 WIB</t>
+          <t>28 Sep 2025, 09:48 WIB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Laili Zain Damaika</t>
+          <t>Aulia Supintou</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-suka-tidur-di-pangkuan-kita-q9t01-00-2k3g7-fdb7cv</t>
+          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya Berencana  Kurangi Subsidi Listrik dan Beralih ke PLTS</t>
+          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 22:10 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Margith Juita Damanik</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-berencana-kurangi-subsidi-listrik-dan-beralih-ke-plts-00-gshdq-m979x0</t>
+          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>28 Sep 2025, 07:02 WIB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Lia Hutasoit</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Purbaya: Tidak Ada Manipulasi pada Data Pertumbuhan Ekonomi Q2</t>
+          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 16:45 WIB</t>
+          <t>28 Sep 2025, 07:05 WIB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Misrohatun H</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-tidak-ada-manipulasi-pada-data-pertumbuhan-ekonomi-q2-00-gshdq-s4g41g</t>
+          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bos BSI Buka Suara Soal Titipan Dana Rp10 Triliun dari Menkeu Purbaya</t>
+          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:30 WIB</t>
+          <t>28 Sep 2025, 09:17 WIB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/bos-bsi-buka-suara-soal-titipan-dana-rp10-triliun-dari-menkeu-purbaya-00-bvq5c-wn60ws</t>
+          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya: Risiko Kredit Fiktif dalam Dana Rp200 T Tetap Ada</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 16:47 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-risiko-kredit-fiktif-dalam-dana-rp200-t-tetap-ada-00-gshdq-gyphns</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Efek The Fed hingga Purbaya Bikin Rupiah Melemah Hari Ini</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:59 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Anata Siregar</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/efek-the-fed-hingga-purbaya-bikin-rupiah-melemah-hari-ini-00-bvq5c-t3dqj3</t>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>26 Sep 2025, 21:19 WIB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>26 Sep 2025, 22:22 WIB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kenapa Kucing dan Anjing Sering Dianggap Bermusuhan? Ini 5 Faktanya!</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 19:06 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lathiva R. Faisol</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-dan-anjing-sering-dianggap-bermusuhan-c1c2-01-6cnpl-4mhk7n</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9 Pemotretan Marini Zumarnis dengan Kucing Kesayangan, Cute!</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21 Sep 2025, 07:01 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nelsi Islamiyati</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/hype/entertainment/9-pemotretan-marini-zumarnis-dengan-kucing-kesayangan-cute-01-cq2rt-26lv6g</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5 Kondisi Kucing Wajib Mandi, Bukan Hanya karena Kotor</t>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 13:28 WIB</t>
+          <t>23 Sep 2025, 15:38 WIB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Devia Sagita</t>
+          <t>Dini Suciatiningrum</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kondisi-kucing-wajib-mandi-c1c2-01-frzwz-tq9qcz</t>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11 Rekomendasi Bag Charm dan Ganci Bentuk Kucing, Gemas!</t>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 18:45 WIB</t>
+          <t>26 Sep 2025, 23:06 WIB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Putri Aisya</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/life/diy/rekomendasi-bag-charm-dan-ganci-bentuk-kucin-00-4tcf2-wp8lnq</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5 Ciri Hamil Palsu pada Kucing, Bisa Jadi Tanda Penyakit!</t>
+          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 19:04 WIB</t>
+          <t>28 Sep 2025, 07:30 WIB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mutiara Ananda</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/ciri-hamil-palsu-pada-kucing-c1c2-01-sfnk2-b1c530</t>
+          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Cuma Mengeong saat Lihat Kamu? Alasannya Bikin Senyum!</t>
+          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 10:38 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yulia Nor Annisa</t>
+          <t>Deti Mega Purnamasari</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-mengeong-saat-lihat-kamu-c1c2-01-l9rtw-q5bkwg</t>
+          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20 Prompt Gemini AI Edit Foto Bareng Kucing, Bikin Gemas</t>
+          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25 Sep 2025, 13:20 WIB</t>
+          <t>28 Sep 2025, 08:29 WIB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Angel Rinella</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/tech/trend/prompt-gemini-ai-edit-foto-bareng-kucing-go25q3-00-m3s99-9fq8dy</t>
+          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kenapa Kucing Suka Tidur di Pangkuan Kita? Ini Jawabannya</t>
+          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 14:12 WIB</t>
+          <t>28 Sep 2025, 06:00 WIB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Laili Zain Damaika</t>
+          <t>Sandy Firdaus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/kenapa-kucing-suka-tidur-di-pangkuan-kita-q9t01-00-2k3g7-fdb7cv</t>
+          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya Berencana  Kurangi Subsidi Listrik dan Beralih ke PLTS</t>
+          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 22:10 WIB</t>
+          <t>28 Sep 2025, 08:30 WIB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Dian Septi Arthasalina</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-berencana-kurangi-subsidi-listrik-dan-beralih-ke-plts-00-gshdq-m979x0</t>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>28 Sep 2025, 09:48 WIB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Aulia Supintou</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Purbaya: Tidak Ada Manipulasi pada Data Pertumbuhan Ekonomi Q2</t>
+          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 16:45 WIB</t>
+          <t>28 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Margith Juita Damanik</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-tidak-ada-manipulasi-pada-data-pertumbuhan-ekonomi-q2-00-gshdq-s4g41g</t>
+          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bos BSI Buka Suara Soal Titipan Dana Rp10 Triliun dari Menkeu Purbaya</t>
+          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:30 WIB</t>
+          <t>28 Sep 2025, 07:02 WIB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Lia Hutasoit</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/bos-bsi-buka-suara-soal-titipan-dana-rp10-triliun-dari-menkeu-purbaya-00-bvq5c-wn60ws</t>
+          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya: Risiko Kredit Fiktif dalam Dana Rp200 T Tetap Ada</t>
+          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20 Sep 2025, 16:47 WIB</t>
+          <t>28 Sep 2025, 07:05 WIB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Misrohatun H</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/menkeu-purbaya-risiko-kredit-fiktif-dalam-dana-rp200-t-tetap-ada-00-gshdq-gyphns</t>
+          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>28 Sep 2025, 09:17 WIB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Rochmanudin Wijaya</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Efek The Fed hingga Purbaya Bikin Rupiah Melemah Hari Ini</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22 Sep 2025, 15:59 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Trio Hamdani</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/efek-the-fed-hingga-purbaya-bikin-rupiah-melemah-hari-ini-00-bvq5c-t3dqj3</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Anata Siregar</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 21:19 WIB</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 22:22 WIB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:41 WIB</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 10:18 WIB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 15:38 WIB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dini Suciatiningrum</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:06 WIB</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/idn_times.xlsx
+++ b/daftar_berita/idn_times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,220 +458,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:30 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deti Mega Purnamasari</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 08:29 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rochmanudin Wijaya</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 06:00 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sandy Firdaus</t>
+          <t>Anata Siregar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 08:30 WIB</t>
+          <t>26 Sep 2025, 21:19 WIB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dian Septi Arthasalina</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 09:48 WIB</t>
+          <t>26 Sep 2025, 22:22 WIB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aulia Supintou</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Margith Juita Damanik</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:02 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lia Hutasoit</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:05 WIB</t>
+          <t>23 Sep 2025, 15:38 WIB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Misrohatun H</t>
+          <t>Dini Suciatiningrum</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 09:17 WIB</t>
+          <t>26 Sep 2025, 23:06 WIB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rochmanudin Wijaya</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>
       </c>
     </row>
@@ -898,878 +898,218 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:30 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Deti Mega Purnamasari</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 08:29 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rochmanudin Wijaya</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 06:00 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sandy Firdaus</t>
+          <t>Anata Siregar</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 08:30 WIB</t>
+          <t>26 Sep 2025, 21:19 WIB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dian Septi Arthasalina</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 09:48 WIB</t>
+          <t>26 Sep 2025, 22:22 WIB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aulia Supintou</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Margith Juita Damanik</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:02 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lia Hutasoit</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 07:05 WIB</t>
+          <t>23 Sep 2025, 15:38 WIB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Misrohatun H</t>
+          <t>Dini Suciatiningrum</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28 Sep 2025, 09:17 WIB</t>
+          <t>26 Sep 2025, 23:06 WIB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rochmanudin Wijaya</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Ridwan Aji Pitoko</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 17:22 WIB</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Muhammad Ilman Nafian</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Anata Siregar</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 21:19 WIB</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 22:22 WIB</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 23:41 WIB</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ridwan Aji Pitoko</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Dini Suciatiningrum</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 23:06 WIB</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>PAMA Buka Lowongan Fresh Graduate 2025, Intip Syaratnya</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 07:30 WIB</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/pama-buka-lowongan-fresh-graduate-2025-intip-syaratnya-evervreen-00-gshdq-ckshgx</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>TOP 5: Muktamar PPP Ricuh hingga Kedatangan Prabowo dari Sidang Umum PBB</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Deti Mega Purnamasari</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/top-5-muktamar-ppp-ricuh-hingga-kedatangan-prabowo-dari-sidang-umum-pbb-00-9c71q-qpn9bq</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Agus Suparmanto Klaim Terpilih Aklamasi Sebagai Ketua Umum PPP</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 08:29 WIB</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Rochmanudin Wijaya</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/agus-suparmanto-klaim-terpilih-aklamasi-sebagai-ketua-umum-ppp-00-7lwyz-42l7pn</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Barcelona Masih Tak Boleh Pulang ke Camp Nou, Apa Alasannya?</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 06:00 WIB</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sandy Firdaus</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/sport/soccer/barcelona-masih-tak-boleh-pulang-ke-camp-nou-apa-alasannya-00-f411s-xpg1dj</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Kalender Jawa Hari Ini 28 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 08:30 WIB</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Dian Septi Arthasalina</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-28-september-2025-cek-weton-tanggal-hijriah-00-rzhh2-6vpc46</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7 Foto Pernikahan Selena Gomez dan Benny Blanco, Intim dan Simpel</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 09:48 WIB</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Aulia Supintou</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/hype/entertainment/potret-pernikahan-selena-gomez-dan-benny-blanco-00-6x7yf-7b8wcl</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Hari Kereta Api Nasional, Begini Sejarah Panjang PT KAI di Indonesia</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 05:00 WIB</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Margith Juita Damanik</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/hari-kereta-api-nasional-begini-sejarah-panjang-pt-kai-di-indonesia-00-l8swn-bygd1k</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Rekap Kunjungan Luar Negeri Presiden Prabowo ke 4 Negara dalam 6 Hari</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 07:02 WIB</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Lia Hutasoit</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/rekap-kunjungan-luar-negeri-presiden-prabowo-ke-4-negara-dalam-6-hari-00-sbfjr-k5slh4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Perdebatan Asal-usul Christopher Colombus, Disebut Bukan dari Italia</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 07:05 WIB</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Misrohatun H</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/science/discovery/perdebatan-asal-usul-christopher-colombus-disebut-bukan-dari-italia-00-h7csw-js5rcx</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Pemprov DKI Resmikan Festival Perahu Cilung 2025, Ada 43 Perahu Botol</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>28 Sep 2025, 09:17 WIB</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Rochmanudin Wijaya</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/pemprov-dki-resmikan-festival-perahu-cilung-2025-ada-43-perahu-botol-00-7lwyz-nr85rf</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Ridwan Aji Pitoko</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 17:22 WIB</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Muhammad Ilman Nafian</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Anata Siregar</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 21:19 WIB</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 22:22 WIB</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 23:41 WIB</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ridwan Aji Pitoko</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Dini Suciatiningrum</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>26 Sep 2025, 23:06 WIB</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Triyan Pangastuti</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>

--- a/daftar_berita/idn_times.xlsx
+++ b/daftar_berita/idn_times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,364 +458,364 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>Deklarasi NCD Gagal, Menkes Budi Jelaskan Dampaknya untuk Indonesia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>29 Sep 2025, 05:30 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Uni Lubis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+          <t>https://www.idntimes.com/news/world/deklarasi-ncd-gagal-menkes-budi-jelaskan-dampaknya-untuk-indonesia-00-2mt7q-nrtndj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
+          <t>TOP 5: Agus Suparmanto Jadi Ketum PPP hingga ID Pers Istana Jurnalis CNN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 17:22 WIB</t>
+          <t>29 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Deti Mega Purnamasari</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
+          <t>https://www.idntimes.com/news/indonesia/top-5-agus-suparmanto-jadi-ketum-ppp-hingga-id-pers-istana-jurnalis-c-00-9c71q-tc78rz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>Aplikasi BCA Eror Pagi Ini, Warganet Heboh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>29 Sep 2025, 07:46 WIB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Yosafat Diva Bayu Wisesa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/business/economy/aplikasi-bca-eror-pagi-ini-warganet-heboh-00-jkxzp-3n3dqc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>4 Poin Penanganan Keracunan MBG: Tanggung Jawab SPPG, Sekolah dan Pemda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>29 Sep 2025, 06:05 WIB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Vadhia Lidyana</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/business/economy/4-poin-penanganan-keracunan-mbg-tanggung-jawab-sppg-sekolah-dan-pemda-00-3m8tp-4hxkds</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
+          <t>Profil Agus Suparmanto, Eks Mendag Pesaing Mardiono di Muktamar X PPP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 21:19 WIB</t>
+          <t>29 Sep 2025, 06:00 WIB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Rachel Kathryn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
+          <t>https://www.idntimes.com/news/indonesia/profil-agus-suparmanto-eks-mendag-yang-jadi-calon-ketua-umum-ppp-00-f48mr-63724c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+          <t>Pusat Olahraga Seluas 2,1 Hektare Bakal Ada di Grand Wisata Bekasi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 22:22 WIB</t>
+          <t>29 Sep 2025, 06:01 WIB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Imam Faishal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+          <t>https://www.idntimes.com/sport/arena/pusat-olahraga-seluas-2-1-hektare-bakal-ada-di-grand-wisata-bekasi-00-qkb2b-f2nh2z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+          <t>Kalender Jawa Hari Ini 29 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 23:41 WIB</t>
+          <t>29 Sep 2025, 05:40 WIB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Dian Septi Arthasalina</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-29-september-2025-00-rzhh2-qsckj7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>26 Sep 2025, 21:19 WIB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 23:06 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 17:22 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>26 Sep 2025, 23:06 WIB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>23 Sep 2025, 15:38 WIB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Dini Suciatiningrum</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 21:19 WIB</t>
+          <t>26 Sep 2025, 09:30 WIB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Muhammad Ilman Nafian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 22:22 WIB</t>
+          <t>23 Sep 2025, 19:26 WIB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Anata Siregar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 23:41 WIB</t>
+          <t>26 Sep 2025, 22:22 WIB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,161 +825,161 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>Deklarasi NCD Gagal, Menkes Budi Jelaskan Dampaknya untuk Indonesia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>29 Sep 2025, 05:30 WIB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Uni Lubis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/news/world/deklarasi-ncd-gagal-menkes-budi-jelaskan-dampaknya-untuk-indonesia-00-2mt7q-nrtndj</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>TOP 5: Agus Suparmanto Jadi Ketum PPP hingga ID Pers Istana Jurnalis CNN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>29 Sep 2025, 05:00 WIB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Deti Mega Purnamasari</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/news/indonesia/top-5-agus-suparmanto-jadi-ketum-ppp-hingga-id-pers-istana-jurnalis-c-00-9c71q-tc78rz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
+          <t>Aplikasi BCA Eror Pagi Ini, Warganet Heboh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 23:06 WIB</t>
+          <t>29 Sep 2025, 07:46 WIB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Yosafat Diva Bayu Wisesa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
+          <t>https://www.idntimes.com/business/economy/aplikasi-bca-eror-pagi-ini-warganet-heboh-00-jkxzp-3n3dqc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+          <t>4 Poin Penanganan Keracunan MBG: Tanggung Jawab SPPG, Sekolah dan Pemda</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:19 WIB</t>
+          <t>29 Sep 2025, 06:05 WIB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Vadhia Lidyana</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+          <t>https://www.idntimes.com/business/economy/4-poin-penanganan-keracunan-mbg-tanggung-jawab-sppg-sekolah-dan-pemda-00-3m8tp-4hxkds</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
+          <t>Profil Agus Suparmanto, Eks Mendag Pesaing Mardiono di Muktamar X PPP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 17:22 WIB</t>
+          <t>29 Sep 2025, 06:00 WIB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Rachel Kathryn</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
+          <t>https://www.idntimes.com/news/indonesia/profil-agus-suparmanto-eks-mendag-yang-jadi-calon-ketua-umum-ppp-00-f48mr-63724c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+          <t>Pusat Olahraga Seluas 2,1 Hektare Bakal Ada di Grand Wisata Bekasi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 09:30 WIB</t>
+          <t>29 Sep 2025, 06:01 WIB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Muhammad Ilman Nafian</t>
+          <t>Imam Faishal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+          <t>https://www.idntimes.com/sport/arena/pusat-olahraga-seluas-2-1-hektare-bakal-ada-di-grand-wisata-bekasi-00-qkb2b-f2nh2z</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+          <t>Kalender Jawa Hari Ini 29 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 19:26 WIB</t>
+          <t>29 Sep 2025, 05:40 WIB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Anata Siregar</t>
+          <t>Dian Septi Arthasalina</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-29-september-2025-00-rzhh2-qsckj7</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 22:22 WIB</t>
+          <t>26 Sep 2025, 23:41 WIB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,73 +1023,73 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26 Sep 2025, 23:41 WIB</t>
+          <t>23 Sep 2025, 19:19 WIB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Triyan Pangastuti</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 10:18 WIB</t>
+          <t>26 Sep 2025, 17:22 WIB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ridwan Aji Pitoko</t>
+          <t>Triyan Pangastuti</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23 Sep 2025, 15:38 WIB</t>
+          <t>23 Sep 2025, 10:18 WIB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dini Suciatiningrum</t>
+          <t>Ridwan Aji Pitoko</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
         </is>
       </c>
     </row>
@@ -1112,6 +1112,842 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 15:38 WIB</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Dini Suciatiningrum</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 09:30 WIB</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Muhammad Ilman Nafian</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 19:26 WIB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Anata Siregar</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 22:22 WIB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Deklarasi NCD Gagal, Menkes Budi Jelaskan Dampaknya untuk Indonesia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:30 WIB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Uni Lubis</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/world/deklarasi-ncd-gagal-menkes-budi-jelaskan-dampaknya-untuk-indonesia-00-2mt7q-nrtndj</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TOP 5: Agus Suparmanto Jadi Ketum PPP hingga ID Pers Istana Jurnalis CNN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:00 WIB</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Deti Mega Purnamasari</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/top-5-agus-suparmanto-jadi-ketum-ppp-hingga-id-pers-istana-jurnalis-c-00-9c71q-tc78rz</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Aplikasi BCA Eror Pagi Ini, Warganet Heboh</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 07:46 WIB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yosafat Diva Bayu Wisesa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/aplikasi-bca-eror-pagi-ini-warganet-heboh-00-jkxzp-3n3dqc</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4 Poin Penanganan Keracunan MBG: Tanggung Jawab SPPG, Sekolah dan Pemda</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:05 WIB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vadhia Lidyana</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/4-poin-penanganan-keracunan-mbg-tanggung-jawab-sppg-sekolah-dan-pemda-00-3m8tp-4hxkds</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Profil Agus Suparmanto, Eks Mendag Pesaing Mardiono di Muktamar X PPP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:00 WIB</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rachel Kathryn</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/profil-agus-suparmanto-eks-mendag-yang-jadi-calon-ketua-umum-ppp-00-f48mr-63724c</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pusat Olahraga Seluas 2,1 Hektare Bakal Ada di Grand Wisata Bekasi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:01 WIB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Imam Faishal</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/sport/arena/pusat-olahraga-seluas-2-1-hektare-bakal-ada-di-grand-wisata-bekasi-00-qkb2b-f2nh2z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kalender Jawa Hari Ini 29 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:40 WIB</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dian Septi Arthasalina</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-29-september-2025-00-rzhh2-qsckj7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 21:19 WIB</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:41 WIB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 19:19 WIB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ridwan Aji Pitoko</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 17:22 WIB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 10:18 WIB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ridwan Aji Pitoko</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:06 WIB</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 15:38 WIB</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Dini Suciatiningrum</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 09:30 WIB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Muhammad Ilman Nafian</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 19:26 WIB</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Anata Siregar</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 22:22 WIB</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Deklarasi NCD Gagal, Menkes Budi Jelaskan Dampaknya untuk Indonesia</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:30 WIB</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Uni Lubis</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/world/deklarasi-ncd-gagal-menkes-budi-jelaskan-dampaknya-untuk-indonesia-00-2mt7q-nrtndj</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TOP 5: Agus Suparmanto Jadi Ketum PPP hingga ID Pers Istana Jurnalis CNN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:00 WIB</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Deti Mega Purnamasari</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/top-5-agus-suparmanto-jadi-ketum-ppp-hingga-id-pers-istana-jurnalis-c-00-9c71q-tc78rz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Aplikasi BCA Eror Pagi Ini, Warganet Heboh</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 07:46 WIB</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yosafat Diva Bayu Wisesa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/aplikasi-bca-eror-pagi-ini-warganet-heboh-00-jkxzp-3n3dqc</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4 Poin Penanganan Keracunan MBG: Tanggung Jawab SPPG, Sekolah dan Pemda</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:05 WIB</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Vadhia Lidyana</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/4-poin-penanganan-keracunan-mbg-tanggung-jawab-sppg-sekolah-dan-pemda-00-3m8tp-4hxkds</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Profil Agus Suparmanto, Eks Mendag Pesaing Mardiono di Muktamar X PPP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:00 WIB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rachel Kathryn</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/profil-agus-suparmanto-eks-mendag-yang-jadi-calon-ketua-umum-ppp-00-f48mr-63724c</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pusat Olahraga Seluas 2,1 Hektare Bakal Ada di Grand Wisata Bekasi</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 06:01 WIB</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Imam Faishal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/sport/arena/pusat-olahraga-seluas-2-1-hektare-bakal-ada-di-grand-wisata-bekasi-00-qkb2b-f2nh2z</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kalender Jawa Hari Ini 29 September 2025: Cek Weton &amp; Tanggal Hijriah</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>29 Sep 2025, 05:40 WIB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Dian Septi Arthasalina</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/life/inspiration/kalender-jawa-hari-ini-29-september-2025-00-rzhh2-qsckj7</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Anggito Jadi Ketua LPS, Purbaya Pastikan Sesuai UU</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 21:19 WIB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/anggito-jadi-ketua-lps-purbaya-pastikan-sesuai-uu-00-gshdq-rplpgg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Purbaya ke Hotman Paris: Rugi Jangka Pendek, Untung Jangka Panjang</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:41 WIB</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-ke-hotman-paris-rugi-jangka-pendek-untung-jangka-panjang-00-gshdq-fxw5pt</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Purbaya Buru 200 Penunggak Pajak Besar, Targetkan Dapat Rp60 Triliun</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 19:19 WIB</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ridwan Aji Pitoko</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-buru-200-penunggak-pajak-besar-targetkan-dapat-rp60-triliun-00-brqf5-s30b21</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>84 Penunggak Pajak Bayar Rp5,1 Triliun, Purbaya: Mereka Gak Bisa Lari!</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 17:22 WIB</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/84-penunggak-pajak-bayar-rp5-1-triliun-purbaya-mereka-gak-bisa-lari-00-gshdq-zrsr5q</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Profil Anggito Abimanyu, Wamenkeu yang Jadi Ketua LPS Gantikan Purbaya</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 10:18 WIB</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ridwan Aji Pitoko</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/profil-anggito-abimanyu-00-brqf5-pmdk36</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Purbaya Optimistis Rupiah Siap Bangkit Lawan Dolar Pekan Depan</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 23:06 WIB</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-optimistis-rupiah-siap-bangkit-lawan-dolar-pekan-depan-00-gshdq-phwplf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Koalisi Desak Purbaya Naikkan Tarif Cukai Rokok demi Kesehatan Masyarakat</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 15:38 WIB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dini Suciatiningrum</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/news/indonesia/koalisi-desak-purbaya-naikkan-tarif-cukai-rokok-demi-kesehatan-masyarakat-00-481xk-g8psbq</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CEK FAKTA: Purbaya Minta Rakyat Sumbang bila Ingin Ekonomi Maju?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 09:30 WIB</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Muhammad Ilman Nafian</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/cek-fakta-purbaya-minta-rakyat-sumbang-bila-ingin-ekonomi-maju-00-rgfwk-qn0ffz</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kejar Pertumbuhan Ekonomi 8 Persen, Purbaya Terapkan Sumitronomics</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23 Sep 2025, 19:26 WIB</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Anata Siregar</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/kejar-pertumbuhan-ekonomi-8-persen-purbaya-terapkan-sumitronomics-00-jnnzw-z7btlp</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Purbaya Bantah Dikte Bank Himbara Naikkan Bunga Valas</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>26 Sep 2025, 22:22 WIB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Triyan Pangastuti</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.idntimes.com/business/economy/purbaya-bantah-dikte-bank-himbara-naikkan-bunga-valas-00-gshdq-ch29w2</t>
         </is>
       </c>
     </row>
